--- a/DS03.txtmatrix_output.xlsx
+++ b/DS03.txtmatrix_output.xlsx
@@ -513,13 +513,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02715116022734866</v>
+        <v>0.02722595189079634</v>
       </c>
       <c r="C5" t="n">
-        <v>1.022911394557427</v>
+        <v>1.01497447791951</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02722595189079634</v>
+        <v>0.027348403613539</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01497447791951</v>
+        <v>1.015894519253208</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B7" t="n">
-        <v>0.027348403613539</v>
+        <v>0.02758321106108458</v>
       </c>
       <c r="C7" t="n">
-        <v>1.015894519253208</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02758321106108458</v>
+        <v>0.02734511831255993</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.014574296610637</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02734511831255993</v>
+        <v>0.02716982479867703</v>
       </c>
       <c r="C9" t="n">
-        <v>1.014574296610637</v>
+        <v>1.016967910406333</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02716982479867703</v>
+        <v>0.02708367720517853</v>
       </c>
       <c r="C10" t="n">
-        <v>1.016967910406333</v>
+        <v>1.01420253603627</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02708367720517853</v>
+        <v>0.02766110565603368</v>
       </c>
       <c r="C11" t="n">
-        <v>1.01420253603627</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02766110565603368</v>
+        <v>0.0272673816549731</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.018764566209245</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,30 +649,30 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1038</v>
+        <v>1006</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0272673816549731</v>
+        <v>0.01969018409708555</v>
       </c>
       <c r="C13" t="n">
-        <v>1.018764566209245</v>
+        <v>1.389570931994295</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01969018409708555</v>
+        <v>0.0197036139458252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.389570931994295</v>
+        <v>1.374526063360099</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0197036139458252</v>
+        <v>0.01994368511780524</v>
       </c>
       <c r="C15" t="n">
-        <v>1.374526063360099</v>
+        <v>1.367326690399131</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01994368511780524</v>
+        <v>0.02004963152365041</v>
       </c>
       <c r="C16" t="n">
-        <v>1.367326690399131</v>
+        <v>1.351667324052616</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02004963152365041</v>
+        <v>0.02006404260223228</v>
       </c>
       <c r="C17" t="n">
-        <v>1.351667324052616</v>
+        <v>1.365348396718459</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02006404260223228</v>
+        <v>0.02014209333777081</v>
       </c>
       <c r="C18" t="n">
-        <v>1.365348396718459</v>
+        <v>1.346496337719334</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02014209333777081</v>
+        <v>0.02030093837669724</v>
       </c>
       <c r="C19" t="n">
-        <v>1.346496337719334</v>
+        <v>1.349269904308892</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02030093837669724</v>
+        <v>0.02062084075049665</v>
       </c>
       <c r="C20" t="n">
-        <v>1.349269904308892</v>
+        <v>1.329831728873685</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02062084075049665</v>
+        <v>0.02094546850859005</v>
       </c>
       <c r="C21" t="n">
-        <v>1.329831728873685</v>
+        <v>1.307281944751373</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02094546850859005</v>
+        <v>0.02096105358269686</v>
       </c>
       <c r="C22" t="n">
-        <v>1.307281944751373</v>
+        <v>1.308352694820913</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02096105358269686</v>
+        <v>0.02174545625601215</v>
       </c>
       <c r="C23" t="n">
-        <v>1.308352694820913</v>
+        <v>1.254901880487798</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02174545625601215</v>
+        <v>0.02194349362931345</v>
       </c>
       <c r="C24" t="n">
-        <v>1.254901880487798</v>
+        <v>1.244322054558593</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02194349362931345</v>
+        <v>0.02273911097372205</v>
       </c>
       <c r="C25" t="n">
-        <v>1.244322054558593</v>
+        <v>1.205381524852129</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1005</v>
+        <v>1036</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02273911097372205</v>
+        <v>0.02309305383786657</v>
       </c>
       <c r="C26" t="n">
-        <v>1.205381524852129</v>
+        <v>1.193879598865661</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1036</v>
+        <v>1003</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02309305383786657</v>
+        <v>0.02335326773786855</v>
       </c>
       <c r="C27" t="n">
-        <v>1.193879598865661</v>
+        <v>1.177452519492278</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02335326773786855</v>
+        <v>0.02403283079383921</v>
       </c>
       <c r="C28" t="n">
-        <v>1.177452519492278</v>
+        <v>1.135929095806773</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02403283079383921</v>
+        <v>0.0240401994863301</v>
       </c>
       <c r="C29" t="n">
-        <v>1.135929095806773</v>
+        <v>1.13559624176459</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0240401994863301</v>
+        <v>0.02444848806789969</v>
       </c>
       <c r="C30" t="n">
-        <v>1.13559624176459</v>
+        <v>1.129461690851474</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02444848806789969</v>
+        <v>0.02461585905963523</v>
       </c>
       <c r="C31" t="n">
-        <v>1.129461690851474</v>
+        <v>1.122011818442476</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02461585905963523</v>
+        <v>0.02497113833914189</v>
       </c>
       <c r="C32" t="n">
-        <v>1.122011818442476</v>
+        <v>1.106275364937109</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02497113833914189</v>
+        <v>0.02500062548739874</v>
       </c>
       <c r="C33" t="n">
-        <v>1.106275364937109</v>
+        <v>1.105029534175729</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1021</v>
+        <v>1035</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02500062548739874</v>
+        <v>0.02503607377253466</v>
       </c>
       <c r="C34" t="n">
-        <v>1.105029534175729</v>
+        <v>1.093060924156122</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02503607377253466</v>
+        <v>0.02546664936196514</v>
       </c>
       <c r="C35" t="n">
-        <v>1.093060924156122</v>
+        <v>1.086304615241327</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02546664936196514</v>
+        <v>0.02553801402948858</v>
       </c>
       <c r="C36" t="n">
-        <v>1.086304615241327</v>
+        <v>1.082828873522251</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02553801402948858</v>
+        <v>0.02588616299149623</v>
       </c>
       <c r="C37" t="n">
-        <v>1.082828873522251</v>
+        <v>1.068938120367123</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02588616299149623</v>
+        <v>0.02641261334491467</v>
       </c>
       <c r="C38" t="n">
-        <v>1.068938120367123</v>
+        <v>1.050115846761822</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02641261334491467</v>
+        <v>0.02657305318111709</v>
       </c>
       <c r="C39" t="n">
-        <v>1.050115846761822</v>
+        <v>1.038683856970941</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02657305318111709</v>
+        <v>0.02702528803567448</v>
       </c>
       <c r="C40" t="n">
-        <v>1.038683856970941</v>
+        <v>1.02744279823298</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02702528803567448</v>
+        <v>0.02703575036136383</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02744279823298</v>
+        <v>1.02706454629763</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02703575036136383</v>
+        <v>0.02715116022734866</v>
       </c>
       <c r="C42" t="n">
-        <v>1.02706454629763</v>
+        <v>1.022911394557427</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>

--- a/DS03.txtmatrix_output.xlsx
+++ b/DS03.txtmatrix_output.xlsx
@@ -465,10 +465,10 @@
         <v>998</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02747083913693929</v>
+        <v>0.02499249447828079</v>
       </c>
       <c r="C2" t="n">
-        <v>1.011589597935562</v>
+        <v>1.011679879799863</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -482,7 +482,7 @@
         <v>1000</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02771038282183075</v>
+        <v>0.02520231537930203</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02743055647221578</v>
+        <v>0.02498174824246602</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00793337181363</v>
+        <v>1.007460370413978</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02722595189079634</v>
+        <v>0.02472418385358625</v>
       </c>
       <c r="C5" t="n">
-        <v>1.01497447791951</v>
+        <v>1.022658784589904</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="n">
-        <v>0.027348403613539</v>
+        <v>0.02480343442047405</v>
       </c>
       <c r="C6" t="n">
-        <v>1.015894519253208</v>
+        <v>1.014520732375632</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02758321106108458</v>
+        <v>0.02488263180799086</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.016146684353782</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02734511831255993</v>
+        <v>0.02509043053617814</v>
       </c>
       <c r="C8" t="n">
-        <v>1.014574296610637</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02716982479867703</v>
+        <v>0.0248820138309214</v>
       </c>
       <c r="C9" t="n">
-        <v>1.016967910406333</v>
+        <v>1.014841986775889</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02708367720517853</v>
+        <v>0.02459294387462648</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01420253603627</v>
+        <v>1.028116192131548</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -615,13 +615,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02766110565603368</v>
+        <v>0.02474035832484577</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.017107275621772</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0272673816549731</v>
+        <v>0.02462148429916677</v>
       </c>
       <c r="C12" t="n">
-        <v>1.018764566209245</v>
+        <v>1.026924433249604</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,64 +649,64 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01969018409708555</v>
+        <v>0.02469742394346954</v>
       </c>
       <c r="C13" t="n">
-        <v>1.389570931994295</v>
+        <v>1.013607038551575</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0197036139458252</v>
+        <v>0.02515680793065387</v>
       </c>
       <c r="C14" t="n">
-        <v>1.374526063360099</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1008</v>
+        <v>1038</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01994368511780524</v>
+        <v>0.02480785439531192</v>
       </c>
       <c r="C15" t="n">
-        <v>1.367326690399131</v>
+        <v>1.019209618324106</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1032</v>
+        <v>1009</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02004963152365041</v>
+        <v>0.0181280098534075</v>
       </c>
       <c r="C16" t="n">
-        <v>1.351667324052616</v>
+        <v>1.379987669876295</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02006404260223228</v>
+        <v>0.01818598328855503</v>
       </c>
       <c r="C17" t="n">
-        <v>1.365348396718459</v>
+        <v>1.388504099585796</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02014209333777081</v>
+        <v>0.01836073250699328</v>
       </c>
       <c r="C18" t="n">
-        <v>1.346496337719334</v>
+        <v>1.370511685357153</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02030093837669724</v>
+        <v>0.01846696005298504</v>
       </c>
       <c r="C19" t="n">
-        <v>1.349269904308892</v>
+        <v>1.354658807151891</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02062084075049665</v>
+        <v>0.01850140244978409</v>
       </c>
       <c r="C20" t="n">
-        <v>1.329831728873685</v>
+        <v>1.366620929322086</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02094546850859005</v>
+        <v>0.0186557111871776</v>
       </c>
       <c r="C21" t="n">
-        <v>1.307281944751373</v>
+        <v>1.341866975320613</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02096105358269686</v>
+        <v>0.01870461021963122</v>
       </c>
       <c r="C22" t="n">
-        <v>1.308352694820913</v>
+        <v>1.35000473437587</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02174545625601215</v>
+        <v>0.01902073547822901</v>
       </c>
       <c r="C23" t="n">
-        <v>1.254901880487798</v>
+        <v>1.329307367668626</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02194349362931345</v>
+        <v>0.01916166596013066</v>
       </c>
       <c r="C24" t="n">
-        <v>1.244322054558593</v>
+        <v>1.317803598272582</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02273911097372205</v>
+        <v>0.01928454239092584</v>
       </c>
       <c r="C25" t="n">
-        <v>1.205381524852129</v>
+        <v>1.309406873094339</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02309305383786657</v>
+        <v>0.01999235370431631</v>
       </c>
       <c r="C26" t="n">
-        <v>1.193879598865661</v>
+        <v>1.258661127441815</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02335326773786855</v>
+        <v>0.0201625429417602</v>
       </c>
       <c r="C27" t="n">
-        <v>1.177452519492278</v>
+        <v>1.248036942878472</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02403283079383921</v>
+        <v>0.02082558150815029</v>
       </c>
       <c r="C28" t="n">
-        <v>1.135929095806773</v>
+        <v>1.208302320098111</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0240401994863301</v>
+        <v>0.02110796830935852</v>
       </c>
       <c r="C29" t="n">
-        <v>1.13559624176459</v>
+        <v>1.197860610700067</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -938,13 +938,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02444848806789969</v>
+        <v>0.02140630399409593</v>
       </c>
       <c r="C30" t="n">
-        <v>1.129461690851474</v>
+        <v>1.179620375293278</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1034</v>
+        <v>1011</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02461585905963523</v>
+        <v>0.02203611070915681</v>
       </c>
       <c r="C31" t="n">
-        <v>1.122011818442476</v>
+        <v>1.135247068199884</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02497113833914189</v>
+        <v>0.02207310375517515</v>
       </c>
       <c r="C32" t="n">
-        <v>1.106275364937109</v>
+        <v>1.133344470019678</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02500062548739874</v>
+        <v>0.02235228636273191</v>
       </c>
       <c r="C33" t="n">
-        <v>1.105029534175729</v>
+        <v>1.131177518011879</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02503607377253466</v>
+        <v>0.02254580378642181</v>
       </c>
       <c r="C34" t="n">
-        <v>1.093060924156122</v>
+        <v>1.120000537144966</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02546664936196514</v>
+        <v>0.02284770734998079</v>
       </c>
       <c r="C35" t="n">
-        <v>1.086304615241327</v>
+        <v>1.105201146196345</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1040,13 +1040,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02553801402948858</v>
+        <v>0.02285866448941187</v>
       </c>
       <c r="C36" t="n">
-        <v>1.082828873522251</v>
+        <v>1.104671375830107</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02588616299149623</v>
+        <v>0.02295177794990105</v>
       </c>
       <c r="C37" t="n">
-        <v>1.068938120367123</v>
+        <v>1.090699064701471</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02641261334491467</v>
+        <v>0.02324318648781856</v>
       </c>
       <c r="C38" t="n">
-        <v>1.050115846761822</v>
+        <v>1.087820029449795</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1091,13 +1091,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02657305318111709</v>
+        <v>0.02331434034015728</v>
       </c>
       <c r="C39" t="n">
-        <v>1.038683856970941</v>
+        <v>1.083080712674673</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02702528803567448</v>
+        <v>0.02363673287335171</v>
       </c>
       <c r="C40" t="n">
-        <v>1.02744279823298</v>
+        <v>1.068308064674455</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02703575036136383</v>
+        <v>0.02405235911933332</v>
       </c>
       <c r="C41" t="n">
-        <v>1.02706454629763</v>
+        <v>1.051223444828836</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02715116022734866</v>
+        <v>0.02424541319322451</v>
       </c>
       <c r="C42" t="n">
-        <v>1.022911394557427</v>
+        <v>1.03787047273681</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
